--- a/tests/fixtures/diffmat_z1.xlsx
+++ b/tests/fixtures/diffmat_z1.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>rolly_amt</t>
+          <t>qrtr_amt</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
         <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         <v>220</v>
       </c>
       <c r="H3" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>205</v>
       </c>
       <c r="H4" t="n">
-        <v>205</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -599,7 +599,7 @@
         <v>196</v>
       </c>
       <c r="H5" t="n">
-        <v>196</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -633,7 +633,7 @@
         <v>195</v>
       </c>
       <c r="H6" t="n">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>220</v>
       </c>
       <c r="H7" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="n">
-        <v>226</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -735,7 +735,7 @@
         <v>234</v>
       </c>
       <c r="H9" t="n">
-        <v>234</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -769,7 +769,7 @@
         <v>244</v>
       </c>
       <c r="H10" t="n">
-        <v>244</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -803,7 +803,7 @@
         <v>269</v>
       </c>
       <c r="H11" t="n">
-        <v>269</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -837,7 +837,7 @@
         <v>120</v>
       </c>
       <c r="H12" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -871,7 +871,7 @@
         <v>160</v>
       </c>
       <c r="H13" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -905,7 +905,7 @@
         <v>148</v>
       </c>
       <c r="H14" t="n">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -939,7 +939,7 @@
         <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -973,7 +973,7 @@
         <v>138</v>
       </c>
       <c r="H16" t="n">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1007,7 +1007,7 @@
         <v>168</v>
       </c>
       <c r="H17" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1041,7 +1041,7 @@
         <v>175</v>
       </c>
       <c r="H18" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1075,7 +1075,7 @@
         <v>184</v>
       </c>
       <c r="H19" t="n">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1109,7 +1109,7 @@
         <v>195</v>
       </c>
       <c r="H20" t="n">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -1143,7 +1143,7 @@
         <v>220</v>
       </c>
       <c r="H21" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -1223,6 +1223,9 @@
       <c r="F24" t="n">
         <v>31</v>
       </c>
+      <c r="H24" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1255,7 +1258,7 @@
         <v>195</v>
       </c>
       <c r="H25" t="n">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1285,6 +1288,9 @@
       <c r="F26" t="n">
         <v>125</v>
       </c>
+      <c r="H26" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1317,7 +1323,7 @@
         <v>226</v>
       </c>
       <c r="H27" t="n">
-        <v>226</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -1347,9 +1353,6 @@
       <c r="G28" t="n">
         <v>244</v>
       </c>
-      <c r="H28" t="n">
-        <v>244</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1403,6 +1406,9 @@
       <c r="F30" t="n">
         <v>31</v>
       </c>
+      <c r="H30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1431,6 +1437,9 @@
       <c r="F31" t="n">
         <v>125</v>
       </c>
+      <c r="H31" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1459,6 +1468,9 @@
       <c r="F32" t="n">
         <v>31</v>
       </c>
+      <c r="H32" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1487,6 +1499,9 @@
       <c r="F33" t="n">
         <v>39</v>
       </c>
+      <c r="H33" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1519,7 +1534,7 @@
         <v>244</v>
       </c>
       <c r="H34" t="n">
-        <v>244</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1591,7 +1606,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>q2019-4</t>
+          <t>q2020-1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1623,24 +1638,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>q2019-4</t>
+          <t>q2021-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>q2020-3</t>
+          <t>q2021-4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>q2020-3</t>
+          <t>q2021-4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cieB</t>
+          <t>cieC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1660,204 +1675,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>q2021-1</t>
+          <t>q2020-2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>q2021-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>cieC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>q2019-4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>q2020-2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>q2020-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>cieC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>q2019-4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>q2020-3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>q2020-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>cieC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>q2020-1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>q2021-1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>q2021-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>cieC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>q2020-4</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>q2021-1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>q2021-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>cieC</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>q2020-4</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>q2021-2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>q2021-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>cieC</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>q2020-4</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>q2021-3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>q2021-3</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,7 +1804,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>rolly_amt</t>
+          <t>qrtr_amt</t>
         </is>
       </c>
     </row>
@@ -2016,7 +1839,7 @@
         <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -2050,7 +1873,7 @@
         <v>220</v>
       </c>
       <c r="H3" t="n">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -2084,7 +1907,7 @@
         <v>205</v>
       </c>
       <c r="H4" t="n">
-        <v>205</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -2118,7 +1941,7 @@
         <v>196</v>
       </c>
       <c r="H5" t="n">
-        <v>196</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -2152,7 +1975,7 @@
         <v>195</v>
       </c>
       <c r="H6" t="n">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -2186,7 +2009,7 @@
         <v>220</v>
       </c>
       <c r="H7" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -2220,7 +2043,7 @@
         <v>226</v>
       </c>
       <c r="H8" t="n">
-        <v>226</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2254,7 +2077,7 @@
         <v>234</v>
       </c>
       <c r="H9" t="n">
-        <v>234</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -2288,7 +2111,7 @@
         <v>244</v>
       </c>
       <c r="H10" t="n">
-        <v>244</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -2322,7 +2145,7 @@
         <v>269</v>
       </c>
       <c r="H11" t="n">
-        <v>269</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -2356,7 +2179,7 @@
         <v>120</v>
       </c>
       <c r="H12" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2390,7 +2213,7 @@
         <v>160</v>
       </c>
       <c r="H13" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2424,7 +2247,7 @@
         <v>148</v>
       </c>
       <c r="H14" t="n">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -2458,7 +2281,7 @@
         <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -2492,7 +2315,7 @@
         <v>138</v>
       </c>
       <c r="H16" t="n">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -2526,7 +2349,7 @@
         <v>168</v>
       </c>
       <c r="H17" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2560,7 +2383,7 @@
         <v>175</v>
       </c>
       <c r="H18" t="n">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -2594,7 +2417,7 @@
         <v>184</v>
       </c>
       <c r="H19" t="n">
-        <v>184</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2628,7 +2451,7 @@
         <v>195</v>
       </c>
       <c r="H20" t="n">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -2662,7 +2485,7 @@
         <v>220</v>
       </c>
       <c r="H21" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
@@ -2678,7 +2501,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>q2020-4</t>
+          <t>q2020-3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2687,16 +2510,14 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
-      </c>
-      <c r="G22" t="n">
-        <v>195</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>195</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2712,7 +2533,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>q2021-2</t>
+          <t>q2020-4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2721,16 +2542,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="F23" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H23" t="n">
-        <v>226</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -2746,7 +2567,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>q2021-4</t>
+          <t>q2021-1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2755,48 +2576,210 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>244</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>244</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F24" t="n">
+        <v>125</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>244</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>cieB</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>q2021-2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>156</v>
+      </c>
+      <c r="F25" t="n">
+        <v>31</v>
+      </c>
+      <c r="G25" t="n">
+        <v>226</v>
+      </c>
+      <c r="H25" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>cieC</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>sales</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>q2020-3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>156</v>
+      </c>
+      <c r="F26" t="n">
+        <v>31</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>cieC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>q2021-1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>125</v>
+      </c>
+      <c r="F27" t="n">
+        <v>125</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>cieC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>q2021-2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>156</v>
+      </c>
+      <c r="F28" t="n">
+        <v>31</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>cieC</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>q2021-3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>195</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>cieC</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sales</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>q2021-4</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>cum</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>cum</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>244</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F30" t="n">
         <v>49</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G30" t="n">
         <v>244</v>
       </c>
-      <c r="H25" t="n">
-        <v>244</v>
+      <c r="H30" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
